--- a/dsmb_ccru_tables/ae_detail EXAMPLE_STUDY Cohort B 30OCT2020.xlsx
+++ b/dsmb_ccru_tables/ae_detail EXAMPLE_STUDY Cohort B 30OCT2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -32,70 +32,214 @@
     <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=3)</t>
   </si>
   <si>
+    <t xml:space="preserve">BLOOD AND LYMPHATIC SYSTEM DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANEMIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEBRILE NEUTROPENIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEUKOCYTOSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHITEBLOODCELLINCREASED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">CARDIAC DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">PERICARDIAL EFFUSION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.33</t>
+    <t xml:space="preserve">ATRIAL FIBRILLATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EYE DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLURRED VISION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOATERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIGHTEYESTYE</t>
   </si>
   <si>
     <t xml:space="preserve">GASTROINTESTINAL DISORDERS</t>
   </si>
   <si>
+    <t xml:space="preserve">ABDOMINAL PAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOATING</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONSTIPATION</t>
   </si>
   <si>
+    <t xml:space="preserve">66.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIARRHEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRY MOUTH</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAUSEA</t>
   </si>
   <si>
-    <t xml:space="preserve">66.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">VOMITING</t>
   </si>
   <si>
     <t xml:space="preserve">GENERAL DISORDERS AND ADMINISTRATION SITE CONDITIONS</t>
   </si>
   <si>
+    <t xml:space="preserve">CHILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDEMA LIMBS</t>
+  </si>
+  <si>
     <t xml:space="preserve">FATIGUE</t>
   </si>
   <si>
+    <t xml:space="preserve">FEVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAIT DISTURBANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFUSIONREACTION(PLATELETS</t>
+  </si>
+  <si>
     <t xml:space="preserve">INFECTIONS AND INFESTATIONS</t>
   </si>
   <si>
+    <t xml:space="preserve">ABSCESS</t>
+  </si>
+  <si>
     <t xml:space="preserve">LUNG INFECTION</t>
   </si>
   <si>
+    <t xml:space="preserve">SEPSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKIN INFECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URINARY TRACT INFECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INJURY, POISONING AND PROCEDURAL COMPLICATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2BLISTERSONLEFTINDEXFINGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVESTIGATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALANINE AMINOTRANSFERASE INCREASED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALKALINE PHOSPHATASE INCREASED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPARTATE AMINOTRANSFERASE INCREASED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALPOSITIVEFORASPERGILLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOOD BILIRUBIN INCREASED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATININE INCREASED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEUTROPHIL COUNT DECREASED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLATELET COUNT DECREASED</t>
+  </si>
+  <si>
     <t xml:space="preserve">METABOLISM AND NUTRITION DISORDERS</t>
   </si>
   <si>
+    <t xml:space="preserve">ANOREXIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUCOSE INTOLERANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYPERPHOSPHATEMIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">HYPERURICEMIA</t>
   </si>
   <si>
+    <t xml:space="preserve">HYPOCALCEMIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYPOKALEMIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYPOMAGNESEMIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYPOPHOSPHATEMIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">MUSCULOSKELETAL AND CONNECTIVE TISSUE DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">BACK PAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEST WALL PAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAIN IN EXTREMITY</t>
+    <t xml:space="preserve">SCIATICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NERVOUS SYSTEM DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIZZINESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYSGEUSIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEADACHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTRACRANIAL HEMORRHAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARESTHESIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENAL AND URINARY DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYSURIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEMATURIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TINGLINGTOPENIS</t>
   </si>
   <si>
     <t xml:space="preserve">REPRODUCTIVE SYSTEM AND BREAST DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">NIGHT SWEATS</t>
+    <t xml:space="preserve">ERECTILE DYSFUNCTION</t>
   </si>
   <si>
     <t xml:space="preserve">RESPIRATORY, THORACIC AND MEDIASTINAL DISORDERS</t>
@@ -104,13 +248,40 @@
     <t xml:space="preserve">COUGH</t>
   </si>
   <si>
-    <t xml:space="preserve"> 66.67</t>
-  </si>
-  <si>
     <t xml:space="preserve">DYSPNEA</t>
   </si>
   <si>
-    <t xml:space="preserve">PNEUMONITIS</t>
+    <t xml:space="preserve">EPISTAXIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEMOPTYSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKIN AND SUBCUTANEOUS TISSUE DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRY SKIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYPOPIGMENTATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEFTWRISTSOFTTISSUEINDURATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUMPTORIGHTSHIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRURITUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RASH MACULO-PAPULAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VASCULAR DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYPOTENSION</t>
   </si>
   <si>
     <t xml:space="preserve">Phase X Study to Evaluate Treatments A-D</t>
@@ -653,22 +824,22 @@
   <sheetData>
     <row r="1" ht="50" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" ht="82" customHeight="1">
@@ -713,10 +884,10 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>1</v>
@@ -733,50 +904,50 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>1</v>
@@ -788,15 +959,15 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>1</v>
@@ -808,75 +979,75 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C18" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>1</v>
@@ -888,67 +1059,1107 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="s">
+      <c r="C27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>8</v>
+      <c r="C28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/dsmb_ccru_tables/ae_detail EXAMPLE_STUDY Cohort B 30OCT2020.xlsx
+++ b/dsmb_ccru_tables/ae_detail EXAMPLE_STUDY Cohort B 30OCT2020.xlsx
@@ -23,13 +23,13 @@
     <t xml:space="preserve"># of subjects that have experienced the AE</t>
   </si>
   <si>
-    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=3)</t>
+    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=4)</t>
   </si>
   <si>
     <t xml:space="preserve"># of subjects that experienced the event at a grade 3 to 5</t>
   </si>
   <si>
-    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=3)</t>
+    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=4)</t>
   </si>
   <si>
     <t xml:space="preserve">BLOOD AND LYMPHATIC SYSTEM DISORDERS</t>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ANEMIA</t>
   </si>
   <si>
-    <t xml:space="preserve">33.33</t>
+    <t xml:space="preserve">25.00</t>
   </si>
   <si>
     <t xml:space="preserve">FEBRILE NEUTROPENIA</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">CONSTIPATION</t>
   </si>
   <si>
-    <t xml:space="preserve">66.67</t>
+    <t xml:space="preserve">50.00</t>
   </si>
   <si>
     <t xml:space="preserve">DIARRHEA</t>
